--- a/Policies.xlsx
+++ b/Policies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\Flask_BackEnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ED7E48-6567-451E-8628-18B2FBFACA85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB568872-AC82-4245-B296-8716AF7701FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D7D280BF-AF01-46AD-AD26-78BA40F0269C}"/>
+    <workbookView xWindow="2112" yWindow="3060" windowWidth="17280" windowHeight="9420" xr2:uid="{D7D280BF-AF01-46AD-AD26-78BA40F0269C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Policy</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Prices based on NDIS Published Rates 2019-2020. Should these rates be amended by NDIS, Therapy Care prices will be amended to reflect these changes.</t>
-  </si>
-  <si>
-    <t>Note: since 25/03/20, add 10% to estimated costs, in keeping with COVID-19 amendments; in effect until 30/09/20, or until otherwise advised.</t>
   </si>
   <si>
     <t>KM’s travelled will be charged if applicable as per Therapy Care travel policy.</t>
@@ -408,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EF1C20-120C-4149-A6C3-E646C9786935}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,11 +438,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -453,6 +445,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ManagementType xmlns="3c77c12e-3af6-411c-adf5-c7946a82504a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD4563C6A0827740B57B3C744BE26339" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bd690b744e35521f4c6eb73b3cb67b30">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3c77c12e-3af6-411c-adf5-c7946a82504a" xmlns:ns3="d81bdcd8-a482-4ab9-b7f4-f6e8e0fd39a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ab095590dc2f7a523da39351449f5e5" ns2:_="" ns3:_="">
     <xsd:import namespace="3c77c12e-3af6-411c-adf5-c7946a82504a"/>
@@ -679,24 +688,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ManagementType xmlns="3c77c12e-3af6-411c-adf5-c7946a82504a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DA69199-D578-4A1E-97CE-5282982D8F15}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3c77c12e-3af6-411c-adf5-c7946a82504a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B29AB35-2AAB-4BD2-828B-E2EA1F73B0D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BC4D8C-011C-4EB1-9B84-B878014D6C36}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -713,22 +723,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B29AB35-2AAB-4BD2-828B-E2EA1F73B0D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DA69199-D578-4A1E-97CE-5282982D8F15}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3c77c12e-3af6-411c-adf5-c7946a82504a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>